--- a/Doku/Zusammenfassung_EdgeCases.xlsx
+++ b/Doku/Zusammenfassung_EdgeCases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dao1wa2\Desktop\Thesis\AusarbeitungGit\MasterArbeit\Doku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Studium\02Master\6.SS22 - Masterarbeit\MasterArbeit\Doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097805F0-41A1-478C-8726-786F68BF42E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C81941-FA8F-4CA3-BFF0-22279DF401F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-18135" windowWidth="29070" windowHeight="17820" xr2:uid="{0DEEA2AE-274E-45EE-994D-60890DD34255}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{0DEEA2AE-274E-45EE-994D-60890DD34255}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -38,14 +38,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Beschreibung</t>
-  </si>
-  <si>
     <t>Handy am Körper</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
     <t>Normales Fahren</t>
   </si>
   <si>
-    <t>Oberkörper bewegen</t>
-  </si>
-  <si>
     <t>IO</t>
   </si>
   <si>
@@ -70,9 +64,6 @@
     <t>Kein Einfluss auf das Handy</t>
   </si>
   <si>
-    <t>Keine</t>
-  </si>
-  <si>
     <t>Seitliches Lehnen (rechts und links)</t>
   </si>
   <si>
@@ -83,9 +74,6 @@
   </si>
   <si>
     <t>Laufen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handy am Körper </t>
   </si>
   <si>
     <t>Lauferkennungmodul einbauen und die Unfallerknnung während des Laufen deaktivieren</t>
@@ -124,9 +112,6 @@
     <t>Alles möglich (GH, CH, TO)</t>
   </si>
   <si>
-    <t>Fahren, dann (stark) bremsen und Fuß runter</t>
-  </si>
-  <si>
     <t>Handy in der Tasche rutscht</t>
   </si>
   <si>
@@ -145,9 +130,6 @@
     <t>Keine Winkeländerung -&gt; kein Unfall</t>
   </si>
   <si>
-    <t>Testen ob GH oder CH erkannt werden</t>
-  </si>
-  <si>
     <t>Motorrad abstellen</t>
   </si>
   <si>
@@ -157,13 +139,7 @@
     <t>Im aktuellen Algo abgedeckt</t>
   </si>
   <si>
-    <t>In der Kurve (Hanging off)</t>
-  </si>
-  <si>
     <t>Wheelie fahren</t>
-  </si>
-  <si>
-    <t>Testen</t>
   </si>
   <si>
     <t>Beschleunigen, bremsen, Kurven fahren… ect.</t>
@@ -218,9 +194,6 @@
     <t>Stehend fahren</t>
   </si>
   <si>
-    <t>Oberkörper bewegen (Lehnen, umdrehen, strecken…usw.)</t>
-  </si>
-  <si>
     <t>Angemessene Nachkalibrierung</t>
   </si>
   <si>
@@ -233,9 +206,6 @@
     <t>Mögliche Gegenmaßnahmen</t>
   </si>
   <si>
-    <t>Szenario-Name</t>
-  </si>
-  <si>
     <t>Erkennung durch das phone-lifting-Funktion</t>
   </si>
   <si>
@@ -246,13 +216,37 @@
   </si>
   <si>
     <t>Nur auf das Hinterrad fahren</t>
+  </si>
+  <si>
+    <t>Bewegung des Oberkörpers</t>
+  </si>
+  <si>
+    <t>Szenario</t>
+  </si>
+  <si>
+    <t>Nähere Beschreibung</t>
+  </si>
+  <si>
+    <t>Oberkörper bewegen (Lehnen, umdrehen…usw.)</t>
+  </si>
+  <si>
+    <t>Ausführliches Testen</t>
+  </si>
+  <si>
+    <t>Nutzung des Smartphones</t>
+  </si>
+  <si>
+    <t>Starke Bremse nach einer Fahrt und dann Fuß runtersetzten</t>
+  </si>
+  <si>
+    <t>In der Kurve hängen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,27 +257,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -300,6 +273,18 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Bosch Office Sans"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -335,21 +320,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFE7ECF4"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFF5D5D"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -428,121 +416,161 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Gut" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -556,6 +584,12 @@
     <dxf>
       <font>
         <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -564,6 +598,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -580,26 +621,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -623,18 +644,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{05DB8F0E-A4A5-4643-95A3-1C845A5CEA22}" name="Tabelle1" displayName="Tabelle1" ref="A1:B11" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
-  <autoFilter ref="A1:B11" xr:uid="{05DB8F0E-A4A5-4643-95A3-1C845A5CEA22}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{05DB8F0E-A4A5-4643-95A3-1C845A5CEA22}" name="Tabelle1" displayName="Tabelle1" ref="A1:B10" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:B10" xr:uid="{05DB8F0E-A4A5-4643-95A3-1C845A5CEA22}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{937ACC7B-5E5D-4ED3-8733-8442C3E18B0E}" name="Name" dataDxfId="1" dataCellStyle="Schlecht"/>
-    <tableColumn id="2" xr3:uid="{9D37FC57-DF94-449D-88D7-21ADB3CD1B3E}" name="Mögliche Gegenmaßnahmen" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{937ACC7B-5E5D-4ED3-8733-8442C3E18B0E}" name="Name" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{9D37FC57-DF94-449D-88D7-21ADB3CD1B3E}" name="Mögliche Gegenmaßnahmen" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -932,11 +953,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0344B8C7-4119-4FE6-9F8F-0CF601E72D01}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="44" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="44" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
@@ -947,467 +968,462 @@
     <col min="8" max="16384" width="44" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.8">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>33</v>
+      <c r="B3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.8">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27" t="s">
-        <v>40</v>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.8">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27" t="s">
-        <v>11</v>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>18</v>
+      <c r="B9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="43.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="9" t="s">
-        <v>13</v>
+      <c r="B10" s="9"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.8">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>15</v>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>22</v>
+      <c r="B12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>57</v>
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>18</v>
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="7"/>
+      <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="5"/>
       <c r="E15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>24</v>
+      <c r="B16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="G16" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28.8">
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="6" t="s">
-        <v>34</v>
+      <c r="E18" s="8"/>
+      <c r="F18" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="28.8">
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="6" t="s">
-        <v>28</v>
+      <c r="B19" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="6" t="s">
-        <v>30</v>
+      <c r="B20" s="9"/>
+      <c r="C20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="6" t="s">
-        <v>34</v>
+      <c r="B21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="6" t="s">
+      <c r="B22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="7"/>
+      <c r="D22" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="F1:F2"/>
+  <mergeCells count="19">
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C9:C10"/>
@@ -1418,11 +1434,15 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1433,97 +1453,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE58D098-00C1-4919-9470-7F43A070A34D}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="35" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="35" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="35" style="16"/>
-    <col min="2" max="16384" width="35" style="13"/>
+    <col min="1" max="1" width="35" style="17"/>
+    <col min="2" max="16384" width="35" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:2" s="15" customFormat="1" ht="15" thickBot="1">
+      <c r="A1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28.8" thickTop="1" thickBot="1">
+      <c r="A2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1">
+      <c r="A3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1">
+      <c r="A4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1">
+      <c r="A5" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1">
+      <c r="A6" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" thickBot="1">
+      <c r="A7" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="7" customFormat="1" ht="15" thickBot="1">
+      <c r="A8" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>37</v>
+    <row r="9" spans="1:2" s="7" customFormat="1" ht="15" thickBot="1">
+      <c r="A9" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="7" customFormat="1" ht="15" thickBot="1">
+      <c r="A10" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
